--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,331 +46,331 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>thought</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>rec</t>
+    <t>price</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>received</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
     <t>think</t>
   </si>
   <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -379,82 +379,70 @@
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>grandson</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -818,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +814,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -887,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -905,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.85</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -929,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -937,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -955,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -979,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -987,13 +975,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7815533980582524</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1005,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1029,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1058,16 +1046,16 @@
         <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K6">
-        <v>0.7419354838709677</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1079,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1087,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1105,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>0.7083333333333334</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1129,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1137,13 +1125,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K8">
-        <v>0.6875</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1179,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1187,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1205,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K9">
-        <v>0.6415094339622641</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1229,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1237,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.704225352112676</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1255,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10">
-        <v>0.4339622641509434</v>
+        <v>0.625</v>
       </c>
       <c r="L10">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>530</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1276,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>690</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1287,13 +1275,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6891891891891891</v>
+        <v>0.6722689075630253</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1305,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K11">
-        <v>0.4203730272596843</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L11">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1329,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>404</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1337,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6444444444444445</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K12">
-        <v>0.4202898550724637</v>
+        <v>0.4421657095980312</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>539</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>540</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1376,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1387,13 +1375,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6181818181818182</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1405,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K13">
-        <v>0.3838174273858921</v>
+        <v>0.4088952654232424</v>
       </c>
       <c r="L13">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1429,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>297</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1437,13 +1425,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6111111111111112</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1455,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K14">
-        <v>0.3416666666666667</v>
+        <v>0.3941908713692946</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1487,37 +1475,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5966386554621849</v>
+        <v>0.5436046511627907</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K15">
-        <v>0.290519877675841</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1529,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>232</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1537,13 +1525,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5862068965517241</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K16">
-        <v>0.2891566265060241</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1579,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1587,13 +1575,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5797101449275363</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1605,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K17">
-        <v>0.2830188679245283</v>
+        <v>0.2844036697247707</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1629,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1637,13 +1625,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5783132530120482</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1655,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K18">
-        <v>0.2727272727272727</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1679,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1687,13 +1675,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1705,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K19">
-        <v>0.2433862433862434</v>
+        <v>0.234375</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1729,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1737,13 +1725,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1758,28 +1746,28 @@
         <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K20">
-        <v>0.2105263157894737</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>60</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1787,13 +1775,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5473684210526316</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1805,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21">
-        <v>0.203125</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1829,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1837,13 +1825,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5196850393700787</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1855,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K22">
-        <v>0.1965811965811966</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1879,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1887,13 +1875,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1905,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23">
-        <v>0.1888111888111888</v>
+        <v>0.1608391608391608</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1929,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1937,13 +1925,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.46875</v>
+        <v>0.4739336492890995</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1955,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K24">
-        <v>0.1720430107526882</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1979,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1987,37 +1975,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.462962962962963</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>25</v>
       </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>29</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K25">
-        <v>0.1566265060240964</v>
+        <v>0.1485943775100401</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2029,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2037,13 +2025,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4549763033175355</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C26">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2055,31 +2043,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K26">
-        <v>0.1559471365638767</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L26">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>958</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2087,49 +2075,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4473684210526316</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C27">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>116</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27">
+        <v>0.136</v>
+      </c>
+      <c r="L27">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>17</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>21</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27">
-        <v>0.144</v>
-      </c>
-      <c r="L27">
-        <v>18</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2137,13 +2125,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4140625</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2155,31 +2143,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K28">
-        <v>0.1298701298701299</v>
+        <v>0.1000649772579597</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>134</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2187,13 +2175,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2205,31 +2193,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K29">
-        <v>0.1089385474860335</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2237,49 +2225,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4126984126984127</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>38</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30">
+        <v>0.07008086253369272</v>
+      </c>
+      <c r="L30">
         <v>26</v>
       </c>
-      <c r="D30">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>37</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K30">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="L30">
-        <v>165</v>
-      </c>
       <c r="M30">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>1375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2287,13 +2275,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2305,31 +2293,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K31">
-        <v>0.08310991957104558</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>342</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2337,13 +2325,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3931623931623932</v>
+        <v>0.335</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2355,31 +2343,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K32">
-        <v>0.06614785992217899</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>240</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2387,13 +2375,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3910891089108911</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2405,31 +2393,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K33">
-        <v>0.06172839506172839</v>
+        <v>0.05572755417956656</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2437,13 +2425,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3770491803278688</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2455,31 +2443,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K34">
-        <v>0.05902777777777778</v>
+        <v>0.05144694533762058</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34">
         <v>19</v>
       </c>
       <c r="N34">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="O34">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2487,7 +2475,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3673469387755102</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C35">
         <v>18</v>
@@ -2505,31 +2493,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K35">
-        <v>0.05128205128205128</v>
+        <v>0.03770197486535009</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N35">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="O35">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>296</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2537,7 +2525,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3125</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -2555,31 +2543,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K36">
-        <v>0.05080213903743316</v>
+        <v>0.03443328550932568</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>710</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2587,13 +2575,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3518518518518519</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2605,31 +2593,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.03629032258064516</v>
+        <v>0.02165087956698241</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="N37">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
       <c r="O37">
-        <v>0.18</v>
+        <v>0.77</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>478</v>
+        <v>723</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2637,13 +2625,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3488372093023256</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2655,31 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>28</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K38">
-        <v>0.02737752161383285</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>30</v>
-      </c>
-      <c r="N38">
-        <v>0.63</v>
-      </c>
-      <c r="O38">
-        <v>0.37</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>675</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2687,13 +2651,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3225806451612903</v>
+        <v>0.296875</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2705,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2713,13 +2677,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3132911392405063</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C40">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2731,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>217</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2739,13 +2703,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3103448275862069</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2765,13 +2729,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.31</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C42">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2783,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2791,13 +2755,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3092783505154639</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2809,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2817,13 +2781,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3061224489795918</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2835,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>68</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2843,25 +2807,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3061224489795918</v>
+        <v>0.274888558692422</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>34</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2869,13 +2833,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3043478260869565</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="C46">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2887,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>192</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2895,25 +2859,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.303370786516854</v>
+        <v>0.2716763005780347</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2921,13 +2885,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2838038632986627</v>
+        <v>0.2690909090909091</v>
       </c>
       <c r="C48">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D48">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>0.01</v>
@@ -2939,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>482</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2947,13 +2911,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.28</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2965,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2973,13 +2937,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2678571428571428</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2991,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2999,7 +2963,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2535211267605634</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C51">
         <v>18</v>
@@ -3017,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3025,13 +2989,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3043,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3051,25 +3015,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2476190476190476</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C53">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>237</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3077,13 +3041,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2463768115942029</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3095,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3103,13 +3067,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2428571428571429</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3121,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3129,13 +3093,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2417582417582418</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3147,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3155,25 +3119,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.239193083573487</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="C57">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D57">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>264</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3181,13 +3145,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2368421052631579</v>
+        <v>0.2444933920704846</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3199,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>58</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3207,25 +3171,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2367256637168142</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C59">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>345</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3233,25 +3197,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2291666666666667</v>
+        <v>0.24</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3259,25 +3223,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2268041237113402</v>
+        <v>0.2363112391930836</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>75</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3285,13 +3249,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2238805970149254</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3303,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3311,13 +3275,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2214285714285714</v>
+        <v>0.2265625</v>
       </c>
       <c r="C63">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3329,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3337,13 +3301,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.21875</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C64">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D64">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3355,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3363,13 +3327,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.21875</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3381,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3389,13 +3353,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2038216560509554</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3407,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3415,25 +3379,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2027027027027027</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>59</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3441,13 +3405,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2027027027027027</v>
+        <v>0.1832460732984293</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3459,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3467,13 +3431,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2021857923497268</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="C69">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3485,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3493,25 +3457,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3519,13 +3483,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1962616822429906</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3537,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3545,25 +3509,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1879699248120301</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="C72">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E72">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>216</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3571,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1758241758241758</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="C73">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D73">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E73">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F73">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>300</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3597,25 +3561,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1707317073170732</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D74">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3623,25 +3587,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.162303664921466</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3649,13 +3613,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1467889908256881</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3667,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3675,25 +3639,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1452991452991453</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D77">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3701,25 +3665,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1450381679389313</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3727,25 +3691,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1379310344827586</v>
+        <v>0.1369426751592357</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F79">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3753,25 +3717,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1372549019607843</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C80">
         <v>21</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3779,25 +3743,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1366459627329193</v>
+        <v>0.1355371900826446</v>
       </c>
       <c r="C81">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>139</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3805,25 +3769,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1311475409836066</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E82">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3831,25 +3795,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1307692307692308</v>
+        <v>0.1263537906137184</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>113</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3857,25 +3821,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1255605381165919</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C84">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>390</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3883,25 +3847,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1210191082802548</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="C85">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D85">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E85">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F85">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>276</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3909,25 +3873,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.120253164556962</v>
+        <v>0.11875</v>
       </c>
       <c r="C86">
         <v>19</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3935,25 +3899,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1183431952662722</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3961,25 +3925,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1182795698924731</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3987,25 +3951,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1171617161716172</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C89">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>535</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4013,25 +3977,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1163636363636364</v>
+        <v>0.1045197740112994</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D90">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E90">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>243</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4039,25 +4003,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1081081081081081</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4065,25 +4029,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1059907834101382</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C92">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4091,25 +4055,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1042253521126761</v>
+        <v>0.09069767441860466</v>
       </c>
       <c r="C93">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>318</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4117,25 +4081,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1020408163265306</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="C94">
         <v>20</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4143,25 +4107,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09624413145539906</v>
+        <v>0.080370942812983</v>
       </c>
       <c r="C95">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D95">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E95">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F95">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>385</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4169,25 +4133,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.09579439252336448</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="C96">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D96">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E96">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F96">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4195,25 +4159,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.09287531806615776</v>
+        <v>0.07069408740359898</v>
       </c>
       <c r="C97">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D97">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E97">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="F97">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4221,25 +4185,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.08571428571428572</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C98">
         <v>15</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4247,25 +4211,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.07430340557275542</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="C99">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D99">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E99">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="F99">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>598</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4273,13 +4237,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.07407407407407407</v>
+        <v>0.05315614617940199</v>
       </c>
       <c r="C100">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4291,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>325</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4299,25 +4263,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.066</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D101">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E101">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="F101">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4325,25 +4289,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.06575963718820861</v>
+        <v>0.05157593123209169</v>
       </c>
       <c r="C102">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F102">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>412</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4351,77 +4315,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.06493506493506493</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E103">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F103">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104">
-        <v>0.05315614617940199</v>
-      </c>
-      <c r="C104">
-        <v>16</v>
-      </c>
-      <c r="D104">
-        <v>16</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105">
-        <v>0.04516129032258064</v>
-      </c>
-      <c r="C105">
-        <v>21</v>
-      </c>
-      <c r="D105">
-        <v>25</v>
-      </c>
-      <c r="E105">
-        <v>0.16</v>
-      </c>
-      <c r="F105">
-        <v>0.84</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
